--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00004.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00004.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="5640" windowWidth="23460" windowHeight="10245" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="3960" yWindow="3060" windowWidth="23460" windowHeight="10240" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,12 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$386</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -887,21 +892,21 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="9" width="19.83203125" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="28">
       <c r="A1" s="27" t="s">
         <v>36</v>
       </c>
@@ -939,7 +944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="24" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -977,57 +982,62 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15">
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15">
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:9">
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9">
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:9">
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:9">
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:9">
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1036,22 +1046,22 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="28">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
@@ -1116,7 +1126,7 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -1155,7 +1165,7 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1194,7 +1204,7 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -1233,7 +1243,7 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="9"/>
@@ -1254,7 +1264,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="2" customFormat="1">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -1277,7 +1287,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="16">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>19</v>
@@ -1288,7 +1298,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="2" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1322,7 +1332,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="2" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -1356,7 +1366,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="2" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1390,7 +1400,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="2" customFormat="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -1406,7 +1416,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="2" customFormat="1">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -1436,7 +1446,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="2" customFormat="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
@@ -1452,7 +1462,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="2" customFormat="1">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -1482,7 +1492,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="2" customFormat="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9"/>
@@ -1498,7 +1508,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="2" customFormat="1">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -1528,7 +1538,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="2" customFormat="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="9"/>
@@ -1544,7 +1554,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="2" customFormat="1">
       <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
@@ -1574,7 +1584,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="2" customFormat="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -1590,13 +1600,13 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00004.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00004.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27127"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="3060" windowWidth="23460" windowHeight="10240" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="3960" yWindow="3060" windowWidth="23460" windowHeight="10245" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$386</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>Ref Des</t>
   </si>
@@ -190,12 +195,15 @@
   <si>
     <t>P5a</t>
   </si>
+  <si>
+    <t>CC_bsipar_par_scaling</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -302,6 +310,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF484848"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -414,7 +428,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -489,6 +503,7 @@
     <xf numFmtId="14" fontId="15" fillId="4" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -597,6 +612,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -889,24 +907,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="9" width="19.83203125" customWidth="1"/>
-    <col min="10" max="11" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>36</v>
       </c>
@@ -944,7 +962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="24" customFormat="1" ht="15">
+    <row r="2" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -981,52 +999,58 @@
       <c r="L2" s="25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="24">
+        <v>39.966666670000002</v>
+      </c>
+      <c r="N2" s="24">
+        <v>-70.533333330000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="8:9">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="8:9">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="8:9">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="8:9">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="8:9">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -1045,23 +1069,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28">
+    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
@@ -1126,7 +1150,7 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -1165,7 +1189,7 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1204,7 +1228,7 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -1243,7 +1267,7 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="9"/>
@@ -1264,7 +1288,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1">
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -1298,7 +1322,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1">
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1332,7 +1356,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1">
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -1366,7 +1390,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1">
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1400,7 +1424,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1">
+    <row r="11" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -1416,7 +1440,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1">
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -1446,7 +1470,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1">
+    <row r="13" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
@@ -1462,7 +1486,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1">
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -1492,7 +1516,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1">
+    <row r="15" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9"/>
@@ -1508,7 +1532,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1">
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -1527,8 +1551,12 @@
       <c r="F16" s="19">
         <v>50156</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
+      <c r="G16" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
       <c r="I16" s="7" t="s">
         <v>25</v>
       </c>
@@ -1538,7 +1566,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1">
+    <row r="17" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="9"/>
@@ -1554,7 +1582,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1">
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
@@ -1584,7 +1612,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1">
+    <row r="19" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -1600,13 +1628,13 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00004.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00004.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="3060" windowWidth="23460" windowHeight="10245" tabRatio="377"/>
+    <workbookView xWindow="3960" yWindow="3060" windowWidth="23460" windowHeight="10240" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$386</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -45,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>Ref Des</t>
   </si>
@@ -428,7 +423,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,6 +499,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -909,22 +907,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="9" width="19.83203125" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="27" t="s">
         <v>36</v>
       </c>
@@ -962,7 +960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="24" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1006,51 +1004,51 @@
         <v>-70.533333330000005</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15">
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15">
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:9">
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9">
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:9">
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:9">
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:9">
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -1069,23 +1067,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="28">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
@@ -1150,7 +1148,7 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -1189,7 +1187,7 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1228,7 +1226,7 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -1267,7 +1265,7 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="9"/>
@@ -1288,7 +1286,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="2" customFormat="1">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -1322,7 +1320,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="2" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1356,7 +1354,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="2" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -1390,7 +1388,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="2" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1424,7 +1422,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="2" customFormat="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -1440,7 +1438,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="2" customFormat="1">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -1470,7 +1468,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="2" customFormat="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
@@ -1486,7 +1484,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="2" customFormat="1">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -1516,7 +1514,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="2" customFormat="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9"/>
@@ -1532,7 +1530,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="2" customFormat="1">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -1554,19 +1552,17 @@
       <c r="G16" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="H16" s="31">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="2" customFormat="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="9"/>
@@ -1582,7 +1578,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="2" customFormat="1">
       <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
@@ -1612,7 +1608,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="2" customFormat="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -1628,13 +1624,13 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00004.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00004.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leila/Documents/OOI_assmgt/asset-management/deployment/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="3060" windowWidth="23460" windowHeight="10240" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="48500" yWindow="8160" windowWidth="23460" windowHeight="10240" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,8 +35,11 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$386</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -389,7 +397,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
@@ -422,6 +430,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -503,7 +521,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="32">
+  <cellStyles count="42">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -518,6 +536,11 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -532,6 +555,11 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 15" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
@@ -907,11 +935,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
@@ -922,7 +950,7 @@
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28">
+    <row r="1" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>36</v>
       </c>
@@ -960,7 +988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="24" customFormat="1" ht="15">
+    <row r="2" spans="1:14" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -998,68 +1026,65 @@
         <v>29</v>
       </c>
       <c r="M2" s="24">
-        <v>39.966666670000002</v>
+        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
+        <v>39.833333333333336</v>
       </c>
       <c r="N2" s="24">
-        <v>-70.533333330000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
+        <v>-70.708333333333329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="15">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:14" ht="15">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="8:9">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="8:9">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="8:9">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="8:9">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="8:9">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1067,11 +1092,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
@@ -1083,7 +1108,7 @@
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28">
+    <row r="1" spans="1:19" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
@@ -1148,7 +1173,7 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -1187,7 +1212,7 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1226,7 +1251,7 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -1265,7 +1290,7 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="9"/>
@@ -1286,7 +1311,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1">
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -1320,7 +1345,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1">
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1354,7 +1379,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1">
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -1388,7 +1413,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1">
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1422,7 +1447,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1">
+    <row r="11" spans="1:19" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -1438,7 +1463,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1">
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -1468,7 +1493,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1">
+    <row r="13" spans="1:19" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
@@ -1484,7 +1509,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1">
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -1514,7 +1539,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1">
+    <row r="15" spans="1:19" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9"/>
@@ -1530,7 +1555,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1">
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -1562,7 +1587,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1">
+    <row r="17" spans="1:14" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="9"/>
@@ -1578,7 +1603,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1">
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
@@ -1608,7 +1633,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1">
+    <row r="19" spans="1:14" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -1624,13 +1649,13 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -1639,10 +1664,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>